--- a/uploads/file_list.xlsx
+++ b/uploads/file_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,11 @@
           <t>Uploaded Files</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Predictions</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,6 +451,11 @@
           <t>test stuff/.DS_Store</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>stuff</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -453,6 +463,11 @@
           <t>test stuff/TXFW_57_2024.02.21_0615.JPG</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>stuff</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,6 +475,11 @@
           <t>test stuff/TXFW_57_2024.02.21_0600.JPG</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>stuff</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -467,6 +487,11 @@
           <t>test stuff/TXFW_57_2024.02.21_0610.JPG</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>stuff</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -474,6 +499,11 @@
           <t>test stuff/TXFW_57_2024.02.21_0605.JPG</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>stuff</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -481,6 +511,11 @@
           <t>test stuff/TXFW_57_2024.02.21_0620.JPG</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>stuff</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -488,6 +523,11 @@
           <t>test stuff/TXFW_57_2024.02.21_0635.JPG</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>stuff</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -495,6 +535,11 @@
           <t>test stuff/TXFW_57_2024.02.21_0625.JPG</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>stuff</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -502,6 +547,11 @@
           <t>test stuff/TXFW_57_2024.02.21_0630.JPG</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>stuff</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -509,11 +559,21 @@
           <t>test stuff/TXFW_57_2024.02.21_0640.JPG</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>stuff</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
           <t>test stuff/TXFW_57_2024.02.21_0645.JPG</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>stuff</t>
         </is>
       </c>
     </row>
